--- a/Checklist_Template .xlsx
+++ b/Checklist_Template .xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Schedule" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="164">
   <si>
     <t>Please fill the following details</t>
   </si>
@@ -212,9 +212,6 @@
     <t>Derivation method</t>
   </si>
   <si>
-    <t xml:space="preserve">xnew = </t>
-  </si>
-  <si>
     <t>x1-x2</t>
   </si>
   <si>
@@ -486,13 +483,46 @@
   </si>
   <si>
     <t>Cons.conf.idx</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Numeric</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>age,duration,campaign,pdays,previous</t>
+  </si>
+  <si>
+    <t>emp.var.rate,cons.price.idx,cons.conf.idx</t>
+  </si>
+  <si>
+    <t>euribor3m,nr.employed</t>
+  </si>
+  <si>
+    <t>xnew = NA</t>
+  </si>
+  <si>
+    <t>PreProcess</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Not Necessary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -542,6 +572,23 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -742,39 +789,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -787,15 +814,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -812,19 +830,67 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1148,134 +1214,134 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" style="47" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="54"/>
-    <col min="3" max="16384" width="14.42578125" style="47"/>
+    <col min="1" max="1" width="41.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="29"/>
+    <col min="3" max="16384" width="14.42578125" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="45"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="45"/>
+      <c r="A1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="45"/>
+      <c r="C2" s="20"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="21">
         <v>1</v>
       </c>
-      <c r="C3" s="45"/>
+      <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="45"/>
+      <c r="C4" s="20"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="21">
         <v>4</v>
       </c>
-      <c r="C5" s="45"/>
+      <c r="C5" s="20"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="50">
+      <c r="B6" s="25">
         <v>5</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="45"/>
+      <c r="C7" s="20"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="46">
+      <c r="B8" s="21">
         <v>8</v>
       </c>
-      <c r="C8" s="45"/>
+      <c r="C8" s="20"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="50">
+      <c r="B9" s="25">
         <v>8</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="52"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="52"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="53"/>
+      <c r="A12" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1286,7 +1352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="A33" sqref="A33:H35"/>
     </sheetView>
   </sheetViews>
@@ -1301,176 +1367,176 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="56" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="57" t="s">
+    </row>
+    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4">
+        <v>41188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="6">
-        <v>41188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="6">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="6" t="s">
+    <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="30" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="57" t="s">
+      <c r="C15" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="D15" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="E15" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E15" s="57" t="s">
+      <c r="F15" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="G15" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="G15" s="57" t="s">
+      <c r="H15" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="H15" s="57" t="s">
+      <c r="I15" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="I15" s="57" t="s">
+    </row>
+    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="30" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="57" t="s">
-        <v>142</v>
-      </c>
-    </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B18">
@@ -1478,224 +1544,224 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="30" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="57" t="s">
+      <c r="C20" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="C20" s="57" t="s">
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="30" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="57" t="s">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="30" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="57" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="58" t="s">
+      <c r="D25" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="58" t="s">
+      <c r="E25" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="58" t="s">
+      <c r="F25" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G25" s="58" t="s">
+      <c r="G25" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="59"/>
+      <c r="H25" s="32"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" s="32">
+        <v>40.44</v>
+      </c>
+      <c r="C26" s="32">
+        <v>38</v>
+      </c>
+      <c r="D26" s="32">
+        <v>10.420999999999999</v>
+      </c>
+      <c r="E26" s="32">
+        <v>17</v>
+      </c>
+      <c r="F26" s="32">
+        <v>98</v>
+      </c>
+      <c r="G26" s="32">
+        <v>0</v>
+      </c>
+      <c r="H26" s="32"/>
+    </row>
+    <row r="27" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="B26" s="59">
-        <v>40.44</v>
-      </c>
-      <c r="C26" s="59">
-        <v>38</v>
-      </c>
-      <c r="D26" s="59">
-        <v>10.420999999999999</v>
-      </c>
-      <c r="E26" s="59">
-        <v>17</v>
-      </c>
-      <c r="F26" s="59">
-        <v>98</v>
-      </c>
-      <c r="G26" s="59">
+      <c r="B27" s="32">
+        <v>258.28500000000003</v>
+      </c>
+      <c r="C27" s="32">
+        <v>180</v>
+      </c>
+      <c r="D27" s="32">
+        <v>259.27199999999999</v>
+      </c>
+      <c r="E27" s="32">
         <v>0</v>
       </c>
-      <c r="H26" s="59"/>
-    </row>
-    <row r="27" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="59" t="s">
+      <c r="F27" s="32">
+        <v>4918</v>
+      </c>
+      <c r="G27" s="32">
+        <v>0</v>
+      </c>
+      <c r="H27" s="32"/>
+    </row>
+    <row r="28" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="B27" s="59">
-        <v>258.28500000000003</v>
-      </c>
-      <c r="C27" s="59">
-        <v>180</v>
-      </c>
-      <c r="D27" s="59">
-        <v>259.27199999999999</v>
-      </c>
-      <c r="E27" s="59">
+      <c r="B28" s="32">
+        <v>2.56</v>
+      </c>
+      <c r="C28" s="32">
+        <v>2</v>
+      </c>
+      <c r="D28" s="32">
+        <v>2.77</v>
+      </c>
+      <c r="E28" s="32">
+        <v>1</v>
+      </c>
+      <c r="F28" s="32">
+        <v>56</v>
+      </c>
+      <c r="G28" s="32">
         <v>0</v>
       </c>
-      <c r="F27" s="59">
-        <v>4918</v>
-      </c>
-      <c r="G27" s="59">
+      <c r="H28" s="32"/>
+    </row>
+    <row r="29" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="32">
+        <v>962.47</v>
+      </c>
+      <c r="C29" s="32">
+        <v>999</v>
+      </c>
+      <c r="D29" s="32">
+        <v>186.91</v>
+      </c>
+      <c r="E29" s="32">
         <v>0</v>
       </c>
-      <c r="H27" s="59"/>
-    </row>
-    <row r="28" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="B28" s="59">
-        <v>2.56</v>
-      </c>
-      <c r="C28" s="59">
-        <v>2</v>
-      </c>
-      <c r="D28" s="59">
-        <v>2.77</v>
-      </c>
-      <c r="E28" s="59">
-        <v>1</v>
-      </c>
-      <c r="F28" s="59">
-        <v>56</v>
-      </c>
-      <c r="G28" s="59">
+      <c r="F29" s="32">
+        <v>999</v>
+      </c>
+      <c r="G29" s="32">
         <v>0</v>
       </c>
-      <c r="H28" s="59"/>
-    </row>
-    <row r="29" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="59" t="s">
+      <c r="H29" s="32"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="B29" s="59">
-        <v>962.47</v>
-      </c>
-      <c r="C29" s="59">
-        <v>999</v>
-      </c>
-      <c r="D29" s="59">
-        <v>186.91</v>
-      </c>
-      <c r="E29" s="59">
+      <c r="B30" s="32">
+        <v>0.17</v>
+      </c>
+      <c r="C30" s="32">
         <v>0</v>
       </c>
-      <c r="F29" s="59">
-        <v>999</v>
-      </c>
-      <c r="G29" s="59">
+      <c r="D30" s="32">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="E30" s="32">
         <v>0</v>
       </c>
-      <c r="H29" s="59"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="59" t="s">
+      <c r="F30" s="32">
+        <v>7</v>
+      </c>
+      <c r="G30" s="32">
+        <v>0</v>
+      </c>
+      <c r="H30" s="32"/>
+    </row>
+    <row r="31" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="B30" s="59">
-        <v>0.17</v>
-      </c>
-      <c r="C30" s="59">
+      <c r="B31" s="33">
+        <v>93.575000000000003</v>
+      </c>
+      <c r="C31" s="33">
+        <v>-41.8</v>
+      </c>
+      <c r="D31" s="33">
+        <v>4.6280000000000001</v>
+      </c>
+      <c r="E31" s="33">
+        <v>-50.8</v>
+      </c>
+      <c r="F31" s="33">
+        <v>-26.9</v>
+      </c>
+      <c r="G31" s="33">
         <v>0</v>
       </c>
-      <c r="D30" s="59">
-        <v>0.49399999999999999</v>
-      </c>
-      <c r="E30" s="59">
-        <v>0</v>
-      </c>
-      <c r="F30" s="59">
-        <v>7</v>
-      </c>
-      <c r="G30" s="59">
-        <v>0</v>
-      </c>
-      <c r="H30" s="59"/>
-    </row>
-    <row r="31" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="61" t="s">
-        <v>153</v>
-      </c>
-      <c r="B31" s="60">
-        <v>93.575000000000003</v>
-      </c>
-      <c r="C31" s="60">
-        <v>-41.8</v>
-      </c>
-      <c r="D31" s="60">
-        <v>4.6280000000000001</v>
-      </c>
-      <c r="E31" s="60">
-        <v>-50.8</v>
-      </c>
-      <c r="F31" s="60">
-        <v>-26.9</v>
-      </c>
-      <c r="G31" s="60">
-        <v>0</v>
-      </c>
-      <c r="H31" s="60"/>
+      <c r="H31" s="33"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
@@ -1707,55 +1773,55 @@
       <c r="C32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="62">
+      <c r="A33" s="37">
         <v>0</v>
       </c>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="62"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
     </row>
     <row r="35" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="62"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1772,475 +1838,530 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28:G32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="45"/>
+    <col min="5" max="5" width="31.140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="14.42578125" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="E1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="E3" s="7" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="E3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="48"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="51" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="G5" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="14" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="54" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
-      <c r="B6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="14" t="s">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="E9" s="7" t="s">
+      <c r="B9" s="58"/>
+      <c r="C9" s="59"/>
+      <c r="E9" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="59"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="51" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="B11" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="F11" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" s="54" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="B12" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="F12" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="G12" s="54" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="E13" s="22" t="s">
+      <c r="B13" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="63"/>
+      <c r="E13" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24"/>
+      <c r="F13" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="G13" s="63"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="E15" s="7" t="s">
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="E15" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="59"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="66" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="E17" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="F17" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="5" t="s">
+      <c r="C18" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="E18" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" s="53" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="5" t="s">
+      <c r="G18" s="54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="55"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="63"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="63"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="5" t="s">
+      <c r="B21" s="58"/>
+      <c r="C21" s="59"/>
+      <c r="E21" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="24"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="F21" s="58"/>
+      <c r="G21" s="59"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="67"/>
+      <c r="E22" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="68"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="67"/>
+      <c r="E23" s="52"/>
+      <c r="G23" s="67"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" s="67"/>
+      <c r="E24" s="52"/>
+      <c r="G24" s="67"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="55"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="63"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="63"/>
+    </row>
+    <row r="27" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="E21" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
+      <c r="B27" s="69" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="59"/>
+      <c r="E27" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="58"/>
+      <c r="G27" s="59"/>
+    </row>
+    <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B28" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="E22" s="25" t="s">
+      <c r="C28" s="67"/>
+      <c r="E28" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="70" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="71"/>
+    </row>
+    <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" s="67"/>
+      <c r="E29" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="70"/>
+      <c r="G29" s="71"/>
+    </row>
+    <row r="30" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="52"/>
+      <c r="C30" s="67"/>
+      <c r="E30" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="70"/>
+      <c r="G30" s="71"/>
+    </row>
+    <row r="31" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="55"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="63"/>
+      <c r="E31" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="70"/>
+      <c r="G31" s="71"/>
+    </row>
+    <row r="32" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E32" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="72"/>
+      <c r="G32" s="73"/>
+    </row>
+    <row r="33" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="59"/>
+    </row>
+    <row r="34" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="B34" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="29"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
-      <c r="C23" s="28"/>
-      <c r="E23" s="13"/>
-      <c r="G23" s="28"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
-      <c r="C24" s="28"/>
-      <c r="E24" s="13"/>
-      <c r="G24" s="28"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="24"/>
-    </row>
-    <row r="27" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="20"/>
-      <c r="E27" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="20"/>
-    </row>
-    <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
+      <c r="C34" s="67"/>
+    </row>
+    <row r="35" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="52"/>
+      <c r="C35" s="67"/>
+      <c r="E35" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="69"/>
+      <c r="G35" s="59"/>
+    </row>
+    <row r="36" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="52"/>
+      <c r="C36" s="67"/>
+      <c r="E36" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="F36" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="E28" s="25" t="s">
+      <c r="G36" s="67"/>
+    </row>
+    <row r="37" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="55"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="63"/>
+      <c r="E37" s="52"/>
+      <c r="G37" s="67"/>
+    </row>
+    <row r="38" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E38" s="52"/>
+      <c r="G38" s="67"/>
+    </row>
+    <row r="39" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="69"/>
+      <c r="C39" s="59"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="63"/>
+    </row>
+    <row r="40" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="31"/>
-      <c r="G28" s="29"/>
-    </row>
-    <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
-      <c r="C29" s="28"/>
-      <c r="E29" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="G29" s="28"/>
-    </row>
-    <row r="30" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
-      <c r="C30" s="28"/>
-      <c r="E30" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G30" s="28"/>
-    </row>
-    <row r="31" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="24"/>
-      <c r="E31" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="G31" s="28"/>
-    </row>
-    <row r="32" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E32" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="24"/>
-    </row>
-    <row r="33" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="20"/>
-    </row>
-    <row r="34" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
+      <c r="C40" s="67"/>
+    </row>
+    <row r="41" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="52"/>
+      <c r="C41" s="67"/>
+      <c r="E41" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" s="69"/>
+      <c r="G41" s="59"/>
+    </row>
+    <row r="42" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="52"/>
+      <c r="C42" s="67"/>
+      <c r="E42" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="F42" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="28"/>
-    </row>
-    <row r="35" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
-      <c r="C35" s="28"/>
-      <c r="E35" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F35" s="30"/>
-      <c r="G35" s="20"/>
-    </row>
-    <row r="36" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="13"/>
-      <c r="C36" s="28"/>
-      <c r="E36" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G36" s="28"/>
-    </row>
-    <row r="37" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="24"/>
-      <c r="E37" s="13"/>
-      <c r="G37" s="28"/>
-    </row>
-    <row r="38" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E38" s="13"/>
-      <c r="G38" s="28"/>
-    </row>
-    <row r="39" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="20"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="24"/>
-    </row>
-    <row r="40" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="28"/>
-    </row>
-    <row r="41" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="C41" s="28"/>
-      <c r="E41" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F41" s="30"/>
-      <c r="G41" s="20"/>
-    </row>
-    <row r="42" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="13"/>
-      <c r="C42" s="28"/>
-      <c r="E42" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G42" s="28"/>
+      <c r="G42" s="67"/>
     </row>
     <row r="43" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="24"/>
-      <c r="E43" s="13"/>
-      <c r="G43" s="28"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="63"/>
+      <c r="E43" s="52"/>
+      <c r="G43" s="67"/>
     </row>
     <row r="44" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E44" s="13"/>
-      <c r="G44" s="28"/>
+      <c r="E44" s="52"/>
+      <c r="G44" s="67"/>
     </row>
     <row r="45" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E45" s="15"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="24"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="63"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F28:G32"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2249,7 +2370,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2258,204 +2381,204 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="B2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="33"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+      <c r="B3" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="C3" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="D3" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="E3" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="F3" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="G3" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="35" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="B4" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="5" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+      <c r="B5" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="5" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
+      <c r="B6" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="13"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
+      <c r="B20" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="5" t="s">
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
+      <c r="B23" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="5" t="s">
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="36" t="s">
+      <c r="B24" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="5" t="s">
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="33"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="G18" s="35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="36" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="36" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2476,292 +2599,292 @@
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34"/>
+      <c r="A1" s="14"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="37" t="s">
+      <c r="D2" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="8"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="K2" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="M2" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="N2" s="35" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36" t="s">
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="21"/>
-      <c r="I3" s="28"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="I4" s="28"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="I5" s="28"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="I6" s="28"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="21" t="s">
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="I7" s="28"/>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="I8" s="28"/>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="I9" s="28"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="I10" s="28"/>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36" t="s">
+      <c r="D12" s="5"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="I11" s="28"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36" t="s">
+      <c r="D14" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="I12" s="28"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36" t="s">
+      <c r="D15" s="5"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="I13" s="28"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="21" t="s">
+      <c r="D16" s="5"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="I14" s="28"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="I15" s="28"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="I16" s="28"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36" t="s">
+      <c r="D17" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="I17" s="28"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="I18" s="28"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="13"/>
-      <c r="I19" s="28"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36" t="s">
+      <c r="D20" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="I20" s="28"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="I21" s="28"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="13"/>
-      <c r="I22" s="28"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36" t="s">
+      <c r="D23" s="5"/>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="I23" s="28"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36" t="s">
+      <c r="D26" s="5"/>
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="I24" s="28"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36" t="s">
+      <c r="D27" s="5"/>
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="I25" s="28"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36" t="s">
+      <c r="D28" s="5"/>
+      <c r="I28" s="11"/>
+    </row>
+    <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="I26" s="28"/>
-    </row>
-    <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36" t="s">
+      <c r="D29" s="5"/>
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="I27" s="28"/>
-    </row>
-    <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36" t="s">
+      <c r="D30" s="5"/>
+      <c r="I30" s="11"/>
+    </row>
+    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="I28" s="28"/>
-    </row>
-    <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" s="13"/>
-      <c r="I29" s="28"/>
-    </row>
-    <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="D30" s="13"/>
-      <c r="I30" s="28"/>
-    </row>
-    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="24"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2783,83 +2906,83 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+    <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+    <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+    <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+    <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="39" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
